--- a/quiniela.xlsx
+++ b/quiniela.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis Palomino\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis Palomino\Desktop\github\WorldCupPool2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518A8A4C-C9F4-4164-AE01-E45EE50EFEA0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BD9AFF-F0E0-4436-9727-1B94211C8355}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{45C7E736-5DD2-41A9-AC53-C18DD354BA98}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>user_id</t>
   </si>
@@ -184,6 +184,12 @@
   </si>
   <si>
     <t>FK(respective_match) -&gt; matches(match_id)</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>background</t>
   </si>
 </sst>
 </file>
@@ -271,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -289,6 +295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7F0356-519D-41FB-873B-1507B18B5225}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,7 +623,7 @@
     <col min="10" max="24" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -629,8 +636,9 @@
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,8 +663,11 @@
       <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -669,8 +680,9 @@
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -683,8 +695,9 @@
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -693,7 +706,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -704,7 +717,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -717,7 +730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>43</v>
       </c>
@@ -730,7 +743,7 @@
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
@@ -747,7 +760,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>44</v>
       </c>
@@ -759,8 +772,10 @@
         <v>18</v>
       </c>
       <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -774,8 +789,14 @@
       <c r="H11" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>45</v>
       </c>
@@ -787,8 +808,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>46</v>
       </c>
@@ -799,7 +822,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -810,7 +833,7 @@
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G15" s="1" t="s">
         <v>23</v>
       </c>
@@ -818,7 +841,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
@@ -964,16 +987,13 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G4:J4"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="G18:H18"/>
@@ -990,8 +1010,11 @@
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
